--- a/data/bestiary.xlsx
+++ b/data/bestiary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick McMahon\Desktop\Projects\Extra\misc\smt4a_calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick McMahon\Desktop\Projects\Extra\misc\smt4a_calc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F217A86D-C738-4FE4-8973-1DCA5C792694}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33787C5D-588B-47B3-8878-3E055761A7D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" xr2:uid="{09DBB20B-8365-49CC-9719-A7B860051E0F}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Bestiary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bestiary!$A$1:$AE$412</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bestiary!$A$1:$AF$412</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="498">
   <si>
     <t>Food</t>
   </si>
@@ -1519,6 +1519,9 @@
   </si>
   <si>
     <t>Susano-O</t>
+  </si>
+  <si>
+    <t>fusion_req</t>
   </si>
 </sst>
 </file>
@@ -1871,16 +1874,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91E769D-3B9C-4CBD-8A4F-E8BA270BB482}">
-  <dimension ref="A1:AE412"/>
+  <dimension ref="A1:AF412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="G385" sqref="G385"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>463</v>
       </c>
@@ -1974,8 +1979,11 @@
       <c r="AE1" t="s">
         <v>493</v>
       </c>
+      <c r="AF1" t="s">
+        <v>497</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2069,8 +2077,11 @@
       <c r="AE2" t="s">
         <v>494</v>
       </c>
+      <c r="AF2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2164,8 +2175,11 @@
       <c r="AE3" t="s">
         <v>494</v>
       </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2259,8 +2273,11 @@
       <c r="AE4" t="s">
         <v>494</v>
       </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2354,8 +2371,11 @@
       <c r="AE5" t="s">
         <v>494</v>
       </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2449,8 +2469,11 @@
       <c r="AE6" t="s">
         <v>495</v>
       </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2544,8 +2567,11 @@
       <c r="AE7" t="s">
         <v>494</v>
       </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2639,8 +2665,11 @@
       <c r="AE8" t="s">
         <v>494</v>
       </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2734,8 +2763,11 @@
       <c r="AE9" t="s">
         <v>494</v>
       </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2829,8 +2861,11 @@
       <c r="AE10" t="s">
         <v>494</v>
       </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2924,8 +2959,11 @@
       <c r="AE11" t="s">
         <v>494</v>
       </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3019,8 +3057,11 @@
       <c r="AE12" t="s">
         <v>495</v>
       </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3114,8 +3155,11 @@
       <c r="AE13" t="s">
         <v>494</v>
       </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3209,8 +3253,11 @@
       <c r="AE14" t="s">
         <v>494</v>
       </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3304,8 +3351,11 @@
       <c r="AE15" t="s">
         <v>494</v>
       </c>
+      <c r="AF15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3399,8 +3449,11 @@
       <c r="AE16" t="s">
         <v>494</v>
       </c>
+      <c r="AF16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3494,8 +3547,11 @@
       <c r="AE17" t="s">
         <v>495</v>
       </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3589,8 +3645,11 @@
       <c r="AE18" t="s">
         <v>494</v>
       </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3684,8 +3743,11 @@
       <c r="AE19" t="s">
         <v>494</v>
       </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3779,8 +3841,11 @@
       <c r="AE20" t="s">
         <v>494</v>
       </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3874,8 +3939,11 @@
       <c r="AE21" t="s">
         <v>495</v>
       </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3969,8 +4037,11 @@
       <c r="AE22" t="s">
         <v>494</v>
       </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -4064,8 +4135,11 @@
       <c r="AE23" t="s">
         <v>494</v>
       </c>
+      <c r="AF23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4159,8 +4233,11 @@
       <c r="AE24" t="s">
         <v>494</v>
       </c>
+      <c r="AF24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4254,8 +4331,11 @@
       <c r="AE25" t="s">
         <v>494</v>
       </c>
+      <c r="AF25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -4349,8 +4429,11 @@
       <c r="AE26" t="s">
         <v>494</v>
       </c>
+      <c r="AF26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -4444,8 +4527,11 @@
       <c r="AE27" t="s">
         <v>494</v>
       </c>
+      <c r="AF27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4539,8 +4625,11 @@
       <c r="AE28" t="s">
         <v>494</v>
       </c>
+      <c r="AF28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -4634,8 +4723,11 @@
       <c r="AE29" t="s">
         <v>494</v>
       </c>
+      <c r="AF29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -4729,8 +4821,11 @@
       <c r="AE30" t="s">
         <v>495</v>
       </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -4824,8 +4919,11 @@
       <c r="AE31" t="s">
         <v>495</v>
       </c>
+      <c r="AF31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -4919,8 +5017,11 @@
       <c r="AE32" t="s">
         <v>494</v>
       </c>
+      <c r="AF32">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5014,8 +5115,11 @@
       <c r="AE33" t="s">
         <v>494</v>
       </c>
+      <c r="AF33">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -5109,8 +5213,11 @@
       <c r="AE34" t="s">
         <v>494</v>
       </c>
+      <c r="AF34">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -5204,8 +5311,11 @@
       <c r="AE35" t="s">
         <v>494</v>
       </c>
+      <c r="AF35">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -5299,8 +5409,11 @@
       <c r="AE36" t="s">
         <v>495</v>
       </c>
+      <c r="AF36">
+        <v>2</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -5394,8 +5507,11 @@
       <c r="AE37" t="s">
         <v>494</v>
       </c>
+      <c r="AF37">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -5489,8 +5605,11 @@
       <c r="AE38" t="s">
         <v>494</v>
       </c>
+      <c r="AF38">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -5584,8 +5703,11 @@
       <c r="AE39" t="s">
         <v>494</v>
       </c>
+      <c r="AF39">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -5679,8 +5801,11 @@
       <c r="AE40" t="s">
         <v>494</v>
       </c>
+      <c r="AF40">
+        <v>2</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -5774,8 +5899,11 @@
       <c r="AE41" t="s">
         <v>495</v>
       </c>
+      <c r="AF41">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -5869,8 +5997,11 @@
       <c r="AE42" t="s">
         <v>494</v>
       </c>
+      <c r="AF42">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -5964,8 +6095,11 @@
       <c r="AE43" t="s">
         <v>494</v>
       </c>
+      <c r="AF43">
+        <v>2</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -6059,8 +6193,11 @@
       <c r="AE44" t="s">
         <v>494</v>
       </c>
+      <c r="AF44">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -6154,8 +6291,11 @@
       <c r="AE45" t="s">
         <v>494</v>
       </c>
+      <c r="AF45">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -6249,8 +6389,11 @@
       <c r="AE46" t="s">
         <v>495</v>
       </c>
+      <c r="AF46">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -6344,8 +6487,11 @@
       <c r="AE47" t="s">
         <v>494</v>
       </c>
+      <c r="AF47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -6439,8 +6585,11 @@
       <c r="AE48" t="s">
         <v>494</v>
       </c>
+      <c r="AF48">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -6534,8 +6683,11 @@
       <c r="AE49" t="s">
         <v>494</v>
       </c>
+      <c r="AF49">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -6629,8 +6781,11 @@
       <c r="AE50" t="s">
         <v>494</v>
       </c>
+      <c r="AF50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -6724,8 +6879,11 @@
       <c r="AE51" t="s">
         <v>495</v>
       </c>
+      <c r="AF51">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -6819,8 +6977,11 @@
       <c r="AE52" t="s">
         <v>495</v>
       </c>
+      <c r="AF52">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -6914,8 +7075,11 @@
       <c r="AE53" t="s">
         <v>494</v>
       </c>
+      <c r="AF53">
+        <v>2</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7009,8 +7173,11 @@
       <c r="AE54" t="s">
         <v>494</v>
       </c>
+      <c r="AF54">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -7104,8 +7271,11 @@
       <c r="AE55" t="s">
         <v>495</v>
       </c>
+      <c r="AF55">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7199,8 +7369,11 @@
       <c r="AE56" t="s">
         <v>494</v>
       </c>
+      <c r="AF56">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -7294,8 +7467,11 @@
       <c r="AE57" t="s">
         <v>494</v>
       </c>
+      <c r="AF57">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -7389,8 +7565,11 @@
       <c r="AE58" t="s">
         <v>495</v>
       </c>
+      <c r="AF58">
+        <v>2</v>
+      </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -7484,8 +7663,11 @@
       <c r="AE59" t="s">
         <v>495</v>
       </c>
+      <c r="AF59">
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -7579,8 +7761,11 @@
       <c r="AE60" t="s">
         <v>494</v>
       </c>
+      <c r="AF60">
+        <v>2</v>
+      </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -7674,8 +7859,11 @@
       <c r="AE61" t="s">
         <v>494</v>
       </c>
+      <c r="AF61">
+        <v>2</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -7769,8 +7957,11 @@
       <c r="AE62" t="s">
         <v>494</v>
       </c>
+      <c r="AF62">
+        <v>2</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -7864,8 +8055,11 @@
       <c r="AE63" t="s">
         <v>494</v>
       </c>
+      <c r="AF63">
+        <v>2</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -7959,8 +8153,11 @@
       <c r="AE64" t="s">
         <v>494</v>
       </c>
+      <c r="AF64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -8054,8 +8251,11 @@
       <c r="AE65" t="s">
         <v>494</v>
       </c>
+      <c r="AF65">
+        <v>2</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -8149,8 +8349,11 @@
       <c r="AE66" t="s">
         <v>494</v>
       </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -8244,8 +8447,11 @@
       <c r="AE67" t="s">
         <v>495</v>
       </c>
+      <c r="AF67">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -8339,8 +8545,11 @@
       <c r="AE68" t="s">
         <v>495</v>
       </c>
+      <c r="AF68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -8434,8 +8643,11 @@
       <c r="AE69" t="s">
         <v>494</v>
       </c>
+      <c r="AF69">
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -8529,8 +8741,11 @@
       <c r="AE70" t="s">
         <v>494</v>
       </c>
+      <c r="AF70">
+        <v>2</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -8624,8 +8839,11 @@
       <c r="AE71" t="s">
         <v>494</v>
       </c>
+      <c r="AF71">
+        <v>2</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -8719,8 +8937,11 @@
       <c r="AE72" t="s">
         <v>494</v>
       </c>
+      <c r="AF72">
+        <v>2</v>
+      </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -8814,8 +9035,11 @@
       <c r="AE73" t="s">
         <v>495</v>
       </c>
+      <c r="AF73">
+        <v>2</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -8909,8 +9133,11 @@
       <c r="AE74" t="s">
         <v>494</v>
       </c>
+      <c r="AF74">
+        <v>2</v>
+      </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -9004,8 +9231,11 @@
       <c r="AE75" t="s">
         <v>494</v>
       </c>
+      <c r="AF75">
+        <v>2</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -9099,8 +9329,11 @@
       <c r="AE76" t="s">
         <v>494</v>
       </c>
+      <c r="AF76">
+        <v>2</v>
+      </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -9194,8 +9427,11 @@
       <c r="AE77" t="s">
         <v>494</v>
       </c>
+      <c r="AF77">
+        <v>2</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -9289,8 +9525,11 @@
       <c r="AE78" t="s">
         <v>495</v>
       </c>
+      <c r="AF78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -9384,8 +9623,11 @@
       <c r="AE79" t="s">
         <v>494</v>
       </c>
+      <c r="AF79">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -9479,8 +9721,11 @@
       <c r="AE80" t="s">
         <v>494</v>
       </c>
+      <c r="AF80">
+        <v>2</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -9574,8 +9819,11 @@
       <c r="AE81" t="s">
         <v>494</v>
       </c>
+      <c r="AF81">
+        <v>2</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -9669,8 +9917,11 @@
       <c r="AE82" t="s">
         <v>494</v>
       </c>
+      <c r="AF82">
+        <v>2</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -9764,8 +10015,11 @@
       <c r="AE83" t="s">
         <v>495</v>
       </c>
+      <c r="AF83">
+        <v>2</v>
+      </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -9859,8 +10113,11 @@
       <c r="AE84" t="s">
         <v>495</v>
       </c>
+      <c r="AF84">
+        <v>2</v>
+      </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -9954,8 +10211,11 @@
       <c r="AE85" t="s">
         <v>494</v>
       </c>
+      <c r="AF85">
+        <v>2</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -10049,8 +10309,11 @@
       <c r="AE86" t="s">
         <v>494</v>
       </c>
+      <c r="AF86">
+        <v>2</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>64</v>
       </c>
@@ -10144,8 +10407,11 @@
       <c r="AE87" t="s">
         <v>494</v>
       </c>
+      <c r="AF87">
+        <v>2</v>
+      </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -10239,8 +10505,11 @@
       <c r="AE88" t="s">
         <v>495</v>
       </c>
+      <c r="AF88">
+        <v>2</v>
+      </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -10334,8 +10603,11 @@
       <c r="AE89" t="s">
         <v>494</v>
       </c>
+      <c r="AF89">
+        <v>2</v>
+      </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -10429,8 +10701,11 @@
       <c r="AE90" t="s">
         <v>494</v>
       </c>
+      <c r="AF90">
+        <v>2</v>
+      </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -10524,8 +10799,11 @@
       <c r="AE91" t="s">
         <v>494</v>
       </c>
+      <c r="AF91">
+        <v>2</v>
+      </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -10619,8 +10897,11 @@
       <c r="AE92" t="s">
         <v>494</v>
       </c>
+      <c r="AF92">
+        <v>2</v>
+      </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -10714,8 +10995,11 @@
       <c r="AE93" t="s">
         <v>495</v>
       </c>
+      <c r="AF93">
+        <v>2</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -10809,8 +11093,11 @@
       <c r="AE94" t="s">
         <v>494</v>
       </c>
+      <c r="AF94">
+        <v>2</v>
+      </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -10904,8 +11191,11 @@
       <c r="AE95" t="s">
         <v>494</v>
       </c>
+      <c r="AF95">
+        <v>2</v>
+      </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -10999,8 +11289,11 @@
       <c r="AE96" t="s">
         <v>494</v>
       </c>
+      <c r="AF96">
+        <v>2</v>
+      </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -11094,8 +11387,11 @@
       <c r="AE97" t="s">
         <v>494</v>
       </c>
+      <c r="AF97">
+        <v>2</v>
+      </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -11189,8 +11485,11 @@
       <c r="AE98" t="s">
         <v>494</v>
       </c>
+      <c r="AF98">
+        <v>2</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -11284,8 +11583,11 @@
       <c r="AE99" t="s">
         <v>495</v>
       </c>
+      <c r="AF99">
+        <v>2</v>
+      </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -11379,8 +11681,11 @@
       <c r="AE100" t="s">
         <v>495</v>
       </c>
+      <c r="AF100">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -11474,8 +11779,11 @@
       <c r="AE101" t="s">
         <v>495</v>
       </c>
+      <c r="AF101">
+        <v>2</v>
+      </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -11569,8 +11877,11 @@
       <c r="AE102" t="s">
         <v>494</v>
       </c>
+      <c r="AF102">
+        <v>2</v>
+      </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -11664,8 +11975,11 @@
       <c r="AE103" t="s">
         <v>494</v>
       </c>
+      <c r="AF103">
+        <v>2</v>
+      </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>72</v>
       </c>
@@ -11759,8 +12073,11 @@
       <c r="AE104" t="s">
         <v>494</v>
       </c>
+      <c r="AF104">
+        <v>2</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -11854,8 +12171,11 @@
       <c r="AE105" t="s">
         <v>495</v>
       </c>
+      <c r="AF105">
+        <v>2</v>
+      </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -11949,8 +12269,11 @@
       <c r="AE106" t="s">
         <v>495</v>
       </c>
+      <c r="AF106">
+        <v>2</v>
+      </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>145</v>
       </c>
@@ -12044,8 +12367,11 @@
       <c r="AE107" t="s">
         <v>494</v>
       </c>
+      <c r="AF107">
+        <v>2</v>
+      </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -12139,8 +12465,11 @@
       <c r="AE108" t="s">
         <v>494</v>
       </c>
+      <c r="AF108">
+        <v>2</v>
+      </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -12234,8 +12563,11 @@
       <c r="AE109" t="s">
         <v>494</v>
       </c>
+      <c r="AF109">
+        <v>2</v>
+      </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -12329,8 +12661,11 @@
       <c r="AE110" t="s">
         <v>494</v>
       </c>
+      <c r="AF110">
+        <v>2</v>
+      </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>53</v>
       </c>
@@ -12424,8 +12759,11 @@
       <c r="AE111" t="s">
         <v>495</v>
       </c>
+      <c r="AF111">
+        <v>2</v>
+      </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -12519,8 +12857,11 @@
       <c r="AE112" t="s">
         <v>495</v>
       </c>
+      <c r="AF112">
+        <v>3</v>
+      </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -12614,8 +12955,11 @@
       <c r="AE113" t="s">
         <v>494</v>
       </c>
+      <c r="AF113">
+        <v>2</v>
+      </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -12709,8 +13053,11 @@
       <c r="AE114" t="s">
         <v>494</v>
       </c>
+      <c r="AF114">
+        <v>2</v>
+      </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -12804,8 +13151,11 @@
       <c r="AE115" t="s">
         <v>494</v>
       </c>
+      <c r="AF115">
+        <v>2</v>
+      </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -12899,8 +13249,11 @@
       <c r="AE116" t="s">
         <v>494</v>
       </c>
+      <c r="AF116">
+        <v>2</v>
+      </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -12994,8 +13347,11 @@
       <c r="AE117" t="s">
         <v>495</v>
       </c>
+      <c r="AF117">
+        <v>2</v>
+      </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>160</v>
       </c>
@@ -13089,8 +13445,11 @@
       <c r="AE118" t="s">
         <v>495</v>
       </c>
+      <c r="AF118">
+        <v>3</v>
+      </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>76</v>
       </c>
@@ -13184,8 +13543,11 @@
       <c r="AE119" t="s">
         <v>494</v>
       </c>
+      <c r="AF119">
+        <v>2</v>
+      </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -13279,8 +13641,11 @@
       <c r="AE120" t="s">
         <v>494</v>
       </c>
+      <c r="AF120">
+        <v>2</v>
+      </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -13374,8 +13739,11 @@
       <c r="AE121" t="s">
         <v>494</v>
       </c>
+      <c r="AF121">
+        <v>2</v>
+      </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>43</v>
       </c>
@@ -13469,8 +13837,11 @@
       <c r="AE122" t="s">
         <v>495</v>
       </c>
+      <c r="AF122">
+        <v>2</v>
+      </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -13564,8 +13935,11 @@
       <c r="AE123" t="s">
         <v>494</v>
       </c>
+      <c r="AF123">
+        <v>2</v>
+      </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -13659,8 +14033,11 @@
       <c r="AE124" t="s">
         <v>494</v>
       </c>
+      <c r="AF124">
+        <v>2</v>
+      </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -13754,8 +14131,11 @@
       <c r="AE125" t="s">
         <v>494</v>
       </c>
+      <c r="AF125">
+        <v>2</v>
+      </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>109</v>
       </c>
@@ -13849,8 +14229,11 @@
       <c r="AE126" t="s">
         <v>494</v>
       </c>
+      <c r="AF126">
+        <v>2</v>
+      </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>90</v>
       </c>
@@ -13944,8 +14327,11 @@
       <c r="AE127" t="s">
         <v>495</v>
       </c>
+      <c r="AF127">
+        <v>2</v>
+      </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -14039,8 +14425,11 @@
       <c r="AE128" t="s">
         <v>495</v>
       </c>
+      <c r="AF128">
+        <v>3</v>
+      </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>109</v>
       </c>
@@ -14134,8 +14523,11 @@
       <c r="AE129" t="s">
         <v>495</v>
       </c>
+      <c r="AF129">
+        <v>2</v>
+      </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -14229,8 +14621,11 @@
       <c r="AE130" t="s">
         <v>494</v>
       </c>
+      <c r="AF130">
+        <v>2</v>
+      </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -14324,8 +14719,11 @@
       <c r="AE131" t="s">
         <v>494</v>
       </c>
+      <c r="AF131">
+        <v>2</v>
+      </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>72</v>
       </c>
@@ -14419,8 +14817,11 @@
       <c r="AE132" t="s">
         <v>494</v>
       </c>
+      <c r="AF132">
+        <v>2</v>
+      </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>175</v>
       </c>
@@ -14514,8 +14915,11 @@
       <c r="AE133" t="s">
         <v>495</v>
       </c>
+      <c r="AF133">
+        <v>2</v>
+      </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -14609,8 +15013,11 @@
       <c r="AE134" t="s">
         <v>495</v>
       </c>
+      <c r="AF134">
+        <v>2</v>
+      </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -14704,8 +15111,11 @@
       <c r="AE135" t="s">
         <v>494</v>
       </c>
+      <c r="AF135">
+        <v>2</v>
+      </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>83</v>
       </c>
@@ -14799,8 +15209,11 @@
       <c r="AE136" t="s">
         <v>494</v>
       </c>
+      <c r="AF136">
+        <v>3</v>
+      </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -14894,8 +15307,11 @@
       <c r="AE137" t="s">
         <v>494</v>
       </c>
+      <c r="AF137">
+        <v>2</v>
+      </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -14989,8 +15405,11 @@
       <c r="AE138" t="s">
         <v>494</v>
       </c>
+      <c r="AF138">
+        <v>2</v>
+      </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>48</v>
       </c>
@@ -15084,8 +15503,11 @@
       <c r="AE139" t="s">
         <v>494</v>
       </c>
+      <c r="AF139">
+        <v>2</v>
+      </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -15179,8 +15601,11 @@
       <c r="AE140" t="s">
         <v>495</v>
       </c>
+      <c r="AF140">
+        <v>2</v>
+      </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -15274,8 +15699,11 @@
       <c r="AE141" t="s">
         <v>494</v>
       </c>
+      <c r="AF141">
+        <v>2</v>
+      </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -15369,8 +15797,11 @@
       <c r="AE142" t="s">
         <v>494</v>
       </c>
+      <c r="AF142">
+        <v>2</v>
+      </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -15464,8 +15895,11 @@
       <c r="AE143" t="s">
         <v>494</v>
       </c>
+      <c r="AF143">
+        <v>2</v>
+      </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -15559,8 +15993,11 @@
       <c r="AE144" t="s">
         <v>494</v>
       </c>
+      <c r="AF144">
+        <v>2</v>
+      </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -15654,8 +16091,11 @@
       <c r="AE145" t="s">
         <v>495</v>
       </c>
+      <c r="AF145">
+        <v>2</v>
+      </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>43</v>
       </c>
@@ -15749,8 +16189,11 @@
       <c r="AE146" t="s">
         <v>495</v>
       </c>
+      <c r="AF146">
+        <v>2</v>
+      </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>29</v>
       </c>
@@ -15844,8 +16287,11 @@
       <c r="AE147" t="s">
         <v>494</v>
       </c>
+      <c r="AF147">
+        <v>2</v>
+      </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -15939,8 +16385,11 @@
       <c r="AE148" t="s">
         <v>494</v>
       </c>
+      <c r="AF148">
+        <v>2</v>
+      </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>46</v>
       </c>
@@ -16034,8 +16483,11 @@
       <c r="AE149" t="s">
         <v>494</v>
       </c>
+      <c r="AF149">
+        <v>2</v>
+      </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -16129,8 +16581,11 @@
       <c r="AE150" t="s">
         <v>495</v>
       </c>
+      <c r="AF150">
+        <v>2</v>
+      </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>53</v>
       </c>
@@ -16224,8 +16679,11 @@
       <c r="AE151" t="s">
         <v>495</v>
       </c>
+      <c r="AF151">
+        <v>2</v>
+      </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>80</v>
       </c>
@@ -16319,8 +16777,11 @@
       <c r="AE152" t="s">
         <v>495</v>
       </c>
+      <c r="AF152">
+        <v>2</v>
+      </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -16414,8 +16875,11 @@
       <c r="AE153" t="s">
         <v>494</v>
       </c>
+      <c r="AF153">
+        <v>2</v>
+      </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -16509,8 +16973,11 @@
       <c r="AE154" t="s">
         <v>494</v>
       </c>
+      <c r="AF154">
+        <v>2</v>
+      </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>51</v>
       </c>
@@ -16604,8 +17071,11 @@
       <c r="AE155" t="s">
         <v>495</v>
       </c>
+      <c r="AF155">
+        <v>2</v>
+      </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -16699,8 +17169,11 @@
       <c r="AE156" t="s">
         <v>495</v>
       </c>
+      <c r="AF156">
+        <v>2</v>
+      </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>175</v>
       </c>
@@ -16794,8 +17267,11 @@
       <c r="AE157" t="s">
         <v>495</v>
       </c>
+      <c r="AF157">
+        <v>2</v>
+      </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -16889,8 +17365,11 @@
       <c r="AE158" t="s">
         <v>495</v>
       </c>
+      <c r="AF158">
+        <v>3</v>
+      </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>64</v>
       </c>
@@ -16984,8 +17463,11 @@
       <c r="AE159" t="s">
         <v>494</v>
       </c>
+      <c r="AF159">
+        <v>2</v>
+      </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>100</v>
       </c>
@@ -17079,8 +17561,11 @@
       <c r="AE160" t="s">
         <v>495</v>
       </c>
+      <c r="AF160">
+        <v>1</v>
+      </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>48</v>
       </c>
@@ -17174,8 +17659,11 @@
       <c r="AE161" t="s">
         <v>494</v>
       </c>
+      <c r="AF161">
+        <v>2</v>
+      </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -17269,8 +17757,11 @@
       <c r="AE162" t="s">
         <v>494</v>
       </c>
+      <c r="AF162">
+        <v>2</v>
+      </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>25</v>
       </c>
@@ -17364,8 +17855,11 @@
       <c r="AE163" t="s">
         <v>494</v>
       </c>
+      <c r="AF163">
+        <v>2</v>
+      </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -17459,8 +17953,11 @@
       <c r="AE164" t="s">
         <v>494</v>
       </c>
+      <c r="AF164">
+        <v>2</v>
+      </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>33</v>
       </c>
@@ -17554,8 +18051,11 @@
       <c r="AE165" t="s">
         <v>495</v>
       </c>
+      <c r="AF165">
+        <v>2</v>
+      </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -17649,8 +18149,11 @@
       <c r="AE166" t="s">
         <v>495</v>
       </c>
+      <c r="AF166">
+        <v>1</v>
+      </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -17744,8 +18247,11 @@
       <c r="AE167" t="s">
         <v>495</v>
       </c>
+      <c r="AF167">
+        <v>2</v>
+      </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>83</v>
       </c>
@@ -17839,8 +18345,11 @@
       <c r="AE168" t="s">
         <v>494</v>
       </c>
+      <c r="AF168">
+        <v>2</v>
+      </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>87</v>
       </c>
@@ -17934,8 +18443,11 @@
       <c r="AE169" t="s">
         <v>494</v>
       </c>
+      <c r="AF169">
+        <v>2</v>
+      </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>187</v>
       </c>
@@ -18029,8 +18541,11 @@
       <c r="AE170" t="s">
         <v>495</v>
       </c>
+      <c r="AF170">
+        <v>2</v>
+      </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -18124,8 +18639,11 @@
       <c r="AE171" t="s">
         <v>494</v>
       </c>
+      <c r="AF171">
+        <v>2</v>
+      </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>145</v>
       </c>
@@ -18219,8 +18737,11 @@
       <c r="AE172" t="s">
         <v>494</v>
       </c>
+      <c r="AF172">
+        <v>2</v>
+      </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -18314,8 +18835,11 @@
       <c r="AE173" t="s">
         <v>494</v>
       </c>
+      <c r="AF173">
+        <v>2</v>
+      </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>46</v>
       </c>
@@ -18409,8 +18933,11 @@
       <c r="AE174" t="s">
         <v>494</v>
       </c>
+      <c r="AF174">
+        <v>2</v>
+      </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>29</v>
       </c>
@@ -18504,8 +19031,11 @@
       <c r="AE175" t="s">
         <v>494</v>
       </c>
+      <c r="AF175">
+        <v>2</v>
+      </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -18599,8 +19129,11 @@
       <c r="AE176" t="s">
         <v>494</v>
       </c>
+      <c r="AF176">
+        <v>2</v>
+      </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -18694,8 +19227,11 @@
       <c r="AE177" t="s">
         <v>494</v>
       </c>
+      <c r="AF177">
+        <v>2</v>
+      </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>39</v>
       </c>
@@ -18789,8 +19325,11 @@
       <c r="AE178" t="s">
         <v>494</v>
       </c>
+      <c r="AF178">
+        <v>2</v>
+      </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -18884,8 +19423,11 @@
       <c r="AE179" t="s">
         <v>494</v>
       </c>
+      <c r="AF179">
+        <v>2</v>
+      </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -18979,8 +19521,11 @@
       <c r="AE180" t="s">
         <v>494</v>
       </c>
+      <c r="AF180">
+        <v>2</v>
+      </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -19074,8 +19619,11 @@
       <c r="AE181" t="s">
         <v>495</v>
       </c>
+      <c r="AF181">
+        <v>3</v>
+      </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -19169,8 +19717,11 @@
       <c r="AE182" t="s">
         <v>494</v>
       </c>
+      <c r="AF182">
+        <v>2</v>
+      </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>41</v>
       </c>
@@ -19264,8 +19815,11 @@
       <c r="AE183" t="s">
         <v>494</v>
       </c>
+      <c r="AF183">
+        <v>2</v>
+      </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -19359,8 +19913,11 @@
       <c r="AE184" t="s">
         <v>494</v>
       </c>
+      <c r="AF184">
+        <v>2</v>
+      </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>60</v>
       </c>
@@ -19454,8 +20011,11 @@
       <c r="AE185" t="s">
         <v>494</v>
       </c>
+      <c r="AF185">
+        <v>2</v>
+      </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>74</v>
       </c>
@@ -19549,8 +20109,11 @@
       <c r="AE186" t="s">
         <v>494</v>
       </c>
+      <c r="AF186">
+        <v>2</v>
+      </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -19644,8 +20207,11 @@
       <c r="AE187" t="s">
         <v>495</v>
       </c>
+      <c r="AF187">
+        <v>2</v>
+      </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>80</v>
       </c>
@@ -19739,8 +20305,11 @@
       <c r="AE188" t="s">
         <v>495</v>
       </c>
+      <c r="AF188">
+        <v>2</v>
+      </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -19834,8 +20403,11 @@
       <c r="AE189" t="s">
         <v>495</v>
       </c>
+      <c r="AF189">
+        <v>3</v>
+      </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>123</v>
       </c>
@@ -19929,8 +20501,11 @@
       <c r="AE190" t="s">
         <v>495</v>
       </c>
+      <c r="AF190">
+        <v>2</v>
+      </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -20024,8 +20599,11 @@
       <c r="AE191" t="s">
         <v>494</v>
       </c>
+      <c r="AF191">
+        <v>2</v>
+      </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -20119,8 +20697,11 @@
       <c r="AE192" t="s">
         <v>495</v>
       </c>
+      <c r="AF192">
+        <v>2</v>
+      </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>141</v>
       </c>
@@ -20214,8 +20795,11 @@
       <c r="AE193" t="s">
         <v>495</v>
       </c>
+      <c r="AF193">
+        <v>1</v>
+      </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>48</v>
       </c>
@@ -20309,8 +20893,11 @@
       <c r="AE194" t="s">
         <v>494</v>
       </c>
+      <c r="AF194">
+        <v>2</v>
+      </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>53</v>
       </c>
@@ -20404,8 +20991,11 @@
       <c r="AE195" t="s">
         <v>495</v>
       </c>
+      <c r="AF195">
+        <v>2</v>
+      </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -20499,8 +21089,11 @@
       <c r="AE196" t="s">
         <v>494</v>
       </c>
+      <c r="AF196">
+        <v>2</v>
+      </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>51</v>
       </c>
@@ -20594,8 +21187,11 @@
       <c r="AE197" t="s">
         <v>495</v>
       </c>
+      <c r="AF197">
+        <v>2</v>
+      </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>74</v>
       </c>
@@ -20689,8 +21285,11 @@
       <c r="AE198" t="s">
         <v>495</v>
       </c>
+      <c r="AF198">
+        <v>3</v>
+      </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -20784,8 +21383,11 @@
       <c r="AE199" t="s">
         <v>495</v>
       </c>
+      <c r="AF199">
+        <v>1</v>
+      </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -20879,8 +21481,11 @@
       <c r="AE200" t="s">
         <v>494</v>
       </c>
+      <c r="AF200">
+        <v>2</v>
+      </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>187</v>
       </c>
@@ -20974,8 +21579,11 @@
       <c r="AE201" t="s">
         <v>495</v>
       </c>
+      <c r="AF201">
+        <v>2</v>
+      </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>247</v>
       </c>
@@ -21069,8 +21677,11 @@
       <c r="AE202" t="s">
         <v>494</v>
       </c>
+      <c r="AF202">
+        <v>2</v>
+      </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>46</v>
       </c>
@@ -21164,8 +21775,11 @@
       <c r="AE203" t="s">
         <v>494</v>
       </c>
+      <c r="AF203">
+        <v>2</v>
+      </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>74</v>
       </c>
@@ -21259,8 +21873,11 @@
       <c r="AE204" t="s">
         <v>494</v>
       </c>
+      <c r="AF204">
+        <v>2</v>
+      </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -21354,8 +21971,11 @@
       <c r="AE205" t="s">
         <v>494</v>
       </c>
+      <c r="AF205">
+        <v>2</v>
+      </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>60</v>
       </c>
@@ -21449,8 +22069,11 @@
       <c r="AE206" t="s">
         <v>495</v>
       </c>
+      <c r="AF206">
+        <v>2</v>
+      </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>90</v>
       </c>
@@ -21544,8 +22167,11 @@
       <c r="AE207" t="s">
         <v>495</v>
       </c>
+      <c r="AF207">
+        <v>2</v>
+      </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>72</v>
       </c>
@@ -21639,8 +22265,11 @@
       <c r="AE208" t="s">
         <v>494</v>
       </c>
+      <c r="AF208">
+        <v>2</v>
+      </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>64</v>
       </c>
@@ -21734,8 +22363,11 @@
       <c r="AE209" t="s">
         <v>494</v>
       </c>
+      <c r="AF209">
+        <v>2</v>
+      </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -21829,8 +22461,11 @@
       <c r="AE210" t="s">
         <v>494</v>
       </c>
+      <c r="AF210">
+        <v>2</v>
+      </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -21924,8 +22559,11 @@
       <c r="AE211" t="s">
         <v>494</v>
       </c>
+      <c r="AF211">
+        <v>2</v>
+      </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>31</v>
       </c>
@@ -22019,8 +22657,11 @@
       <c r="AE212" t="s">
         <v>494</v>
       </c>
+      <c r="AF212">
+        <v>2</v>
+      </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -22114,8 +22755,11 @@
       <c r="AE213" t="s">
         <v>494</v>
       </c>
+      <c r="AF213">
+        <v>2</v>
+      </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>100</v>
       </c>
@@ -22209,8 +22853,11 @@
       <c r="AE214" t="s">
         <v>494</v>
       </c>
+      <c r="AF214">
+        <v>1</v>
+      </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>27</v>
       </c>
@@ -22304,8 +22951,11 @@
       <c r="AE215" t="s">
         <v>494</v>
       </c>
+      <c r="AF215">
+        <v>2</v>
+      </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>80</v>
       </c>
@@ -22399,8 +23049,11 @@
       <c r="AE216" t="s">
         <v>495</v>
       </c>
+      <c r="AF216">
+        <v>2</v>
+      </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -22494,8 +23147,11 @@
       <c r="AE217" t="s">
         <v>495</v>
       </c>
+      <c r="AF217">
+        <v>2</v>
+      </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>48</v>
       </c>
@@ -22589,8 +23245,11 @@
       <c r="AE218" t="s">
         <v>494</v>
       </c>
+      <c r="AF218">
+        <v>2</v>
+      </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -22684,8 +23343,11 @@
       <c r="AE219" t="s">
         <v>494</v>
       </c>
+      <c r="AF219">
+        <v>2</v>
+      </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>145</v>
       </c>
@@ -22779,8 +23441,11 @@
       <c r="AE220" t="s">
         <v>495</v>
       </c>
+      <c r="AF220">
+        <v>2</v>
+      </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>109</v>
       </c>
@@ -22874,8 +23539,11 @@
       <c r="AE221" t="s">
         <v>495</v>
       </c>
+      <c r="AF221">
+        <v>2</v>
+      </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>76</v>
       </c>
@@ -22969,8 +23637,11 @@
       <c r="AE222" t="s">
         <v>495</v>
       </c>
+      <c r="AF222">
+        <v>2</v>
+      </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>41</v>
       </c>
@@ -23064,8 +23735,11 @@
       <c r="AE223" t="s">
         <v>495</v>
       </c>
+      <c r="AF223">
+        <v>2</v>
+      </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -23159,8 +23833,11 @@
       <c r="AE224" t="s">
         <v>494</v>
       </c>
+      <c r="AF224">
+        <v>2</v>
+      </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>175</v>
       </c>
@@ -23254,8 +23931,11 @@
       <c r="AE225" t="s">
         <v>495</v>
       </c>
+      <c r="AF225">
+        <v>2</v>
+      </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -23349,8 +24029,11 @@
       <c r="AE226" t="s">
         <v>494</v>
       </c>
+      <c r="AF226">
+        <v>2</v>
+      </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -23444,8 +24127,11 @@
       <c r="AE227" t="s">
         <v>494</v>
       </c>
+      <c r="AF227">
+        <v>2</v>
+      </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>87</v>
       </c>
@@ -23539,8 +24225,11 @@
       <c r="AE228" t="s">
         <v>494</v>
       </c>
+      <c r="AF228">
+        <v>2</v>
+      </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -23634,8 +24323,11 @@
       <c r="AE229" t="s">
         <v>494</v>
       </c>
+      <c r="AF229">
+        <v>2</v>
+      </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -23729,8 +24421,11 @@
       <c r="AE230" t="s">
         <v>495</v>
       </c>
+      <c r="AF230">
+        <v>1</v>
+      </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>123</v>
       </c>
@@ -23824,8 +24519,11 @@
       <c r="AE231" t="s">
         <v>495</v>
       </c>
+      <c r="AF231">
+        <v>2</v>
+      </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>100</v>
       </c>
@@ -23919,8 +24617,11 @@
       <c r="AE232" t="s">
         <v>495</v>
       </c>
+      <c r="AF232">
+        <v>4</v>
+      </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>22</v>
       </c>
@@ -24014,8 +24715,11 @@
       <c r="AE233" t="s">
         <v>494</v>
       </c>
+      <c r="AF233">
+        <v>2</v>
+      </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>46</v>
       </c>
@@ -24109,8 +24813,11 @@
       <c r="AE234" t="s">
         <v>494</v>
       </c>
+      <c r="AF234">
+        <v>2</v>
+      </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -24204,8 +24911,11 @@
       <c r="AE235" t="s">
         <v>494</v>
       </c>
+      <c r="AF235">
+        <v>2</v>
+      </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>187</v>
       </c>
@@ -24299,8 +25009,11 @@
       <c r="AE236" t="s">
         <v>495</v>
       </c>
+      <c r="AF236">
+        <v>2</v>
+      </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>285</v>
       </c>
@@ -24394,8 +25107,11 @@
       <c r="AE237" t="s">
         <v>495</v>
       </c>
+      <c r="AF237">
+        <v>2</v>
+      </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>160</v>
       </c>
@@ -24489,8 +25205,11 @@
       <c r="AE238" t="s">
         <v>495</v>
       </c>
+      <c r="AF238">
+        <v>3</v>
+      </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>74</v>
       </c>
@@ -24584,8 +25303,11 @@
       <c r="AE239" t="s">
         <v>494</v>
       </c>
+      <c r="AF239">
+        <v>2</v>
+      </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>39</v>
       </c>
@@ -24679,8 +25401,11 @@
       <c r="AE240" t="s">
         <v>494</v>
       </c>
+      <c r="AF240">
+        <v>2</v>
+      </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -24774,8 +25499,11 @@
       <c r="AE241" t="s">
         <v>494</v>
       </c>
+      <c r="AF241">
+        <v>2</v>
+      </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>60</v>
       </c>
@@ -24869,8 +25597,11 @@
       <c r="AE242" t="s">
         <v>495</v>
       </c>
+      <c r="AF242">
+        <v>2</v>
+      </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>109</v>
       </c>
@@ -24964,8 +25695,11 @@
       <c r="AE243" t="s">
         <v>495</v>
       </c>
+      <c r="AF243">
+        <v>2</v>
+      </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>33</v>
       </c>
@@ -25059,8 +25793,11 @@
       <c r="AE244" t="s">
         <v>495</v>
       </c>
+      <c r="AF244">
+        <v>2</v>
+      </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>53</v>
       </c>
@@ -25154,8 +25891,11 @@
       <c r="AE245" t="s">
         <v>495</v>
       </c>
+      <c r="AF245">
+        <v>2</v>
+      </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>51</v>
       </c>
@@ -25249,8 +25989,11 @@
       <c r="AE246" t="s">
         <v>495</v>
       </c>
+      <c r="AF246">
+        <v>2</v>
+      </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>31</v>
       </c>
@@ -25344,8 +26087,11 @@
       <c r="AE247" t="s">
         <v>494</v>
       </c>
+      <c r="AF247">
+        <v>2</v>
+      </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>25</v>
       </c>
@@ -25439,8 +26185,11 @@
       <c r="AE248" t="s">
         <v>494</v>
       </c>
+      <c r="AF248">
+        <v>2</v>
+      </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -25534,8 +26283,11 @@
       <c r="AE249" t="s">
         <v>494</v>
       </c>
+      <c r="AF249">
+        <v>2</v>
+      </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>175</v>
       </c>
@@ -25629,8 +26381,11 @@
       <c r="AE250" t="s">
         <v>495</v>
       </c>
+      <c r="AF250">
+        <v>2</v>
+      </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>80</v>
       </c>
@@ -25724,8 +26479,11 @@
       <c r="AE251" t="s">
         <v>495</v>
       </c>
+      <c r="AF251">
+        <v>2</v>
+      </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -25819,8 +26577,11 @@
       <c r="AE252" t="s">
         <v>494</v>
       </c>
+      <c r="AF252">
+        <v>2</v>
+      </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -25914,8 +26675,11 @@
       <c r="AE253" t="s">
         <v>494</v>
       </c>
+      <c r="AF253">
+        <v>2</v>
+      </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>301</v>
       </c>
@@ -26009,8 +26773,11 @@
       <c r="AE254" t="s">
         <v>495</v>
       </c>
+      <c r="AF254">
+        <v>2</v>
+      </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>90</v>
       </c>
@@ -26104,8 +26871,11 @@
       <c r="AE255" t="s">
         <v>495</v>
       </c>
+      <c r="AF255">
+        <v>2</v>
+      </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -26199,8 +26969,11 @@
       <c r="AE256" t="s">
         <v>494</v>
       </c>
+      <c r="AF256">
+        <v>2</v>
+      </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>46</v>
       </c>
@@ -26294,8 +27067,11 @@
       <c r="AE257" t="s">
         <v>494</v>
       </c>
+      <c r="AF257">
+        <v>2</v>
+      </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>285</v>
       </c>
@@ -26389,8 +27165,11 @@
       <c r="AE258" t="s">
         <v>495</v>
       </c>
+      <c r="AF258">
+        <v>2</v>
+      </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>129</v>
       </c>
@@ -26484,8 +27263,11 @@
       <c r="AE259" t="s">
         <v>495</v>
       </c>
+      <c r="AF259">
+        <v>3</v>
+      </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>72</v>
       </c>
@@ -26579,8 +27361,11 @@
       <c r="AE260" t="s">
         <v>494</v>
       </c>
+      <c r="AF260">
+        <v>2</v>
+      </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>41</v>
       </c>
@@ -26674,8 +27459,11 @@
       <c r="AE261" t="s">
         <v>494</v>
       </c>
+      <c r="AF261">
+        <v>2</v>
+      </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>76</v>
       </c>
@@ -26769,8 +27557,11 @@
       <c r="AE262" t="s">
         <v>494</v>
       </c>
+      <c r="AF262">
+        <v>2</v>
+      </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>211</v>
       </c>
@@ -26864,8 +27655,11 @@
       <c r="AE263" t="s">
         <v>495</v>
       </c>
+      <c r="AF263">
+        <v>1</v>
+      </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -26959,8 +27753,11 @@
       <c r="AE264" t="s">
         <v>494</v>
       </c>
+      <c r="AF264">
+        <v>2</v>
+      </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>74</v>
       </c>
@@ -27054,8 +27851,11 @@
       <c r="AE265" t="s">
         <v>494</v>
       </c>
+      <c r="AF265">
+        <v>2</v>
+      </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>48</v>
       </c>
@@ -27149,8 +27949,11 @@
       <c r="AE266" t="s">
         <v>494</v>
       </c>
+      <c r="AF266">
+        <v>2</v>
+      </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>60</v>
       </c>
@@ -27244,8 +28047,11 @@
       <c r="AE267" t="s">
         <v>495</v>
       </c>
+      <c r="AF267">
+        <v>2</v>
+      </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>187</v>
       </c>
@@ -27339,8 +28145,11 @@
       <c r="AE268" t="s">
         <v>495</v>
       </c>
+      <c r="AF268">
+        <v>2</v>
+      </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>123</v>
       </c>
@@ -27434,8 +28243,11 @@
       <c r="AE269" t="s">
         <v>495</v>
       </c>
+      <c r="AF269">
+        <v>2</v>
+      </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>247</v>
       </c>
@@ -27529,8 +28341,11 @@
       <c r="AE270" t="s">
         <v>494</v>
       </c>
+      <c r="AF270">
+        <v>2</v>
+      </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>83</v>
       </c>
@@ -27624,8 +28439,11 @@
       <c r="AE271" t="s">
         <v>495</v>
       </c>
+      <c r="AF271">
+        <v>2</v>
+      </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>25</v>
       </c>
@@ -27719,8 +28537,11 @@
       <c r="AE272" t="s">
         <v>494</v>
       </c>
+      <c r="AF272">
+        <v>2</v>
+      </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -27814,8 +28635,11 @@
       <c r="AE273" t="s">
         <v>494</v>
       </c>
+      <c r="AF273">
+        <v>2</v>
+      </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -27909,8 +28733,11 @@
       <c r="AE274" t="s">
         <v>494</v>
       </c>
+      <c r="AF274">
+        <v>2</v>
+      </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>145</v>
       </c>
@@ -28004,8 +28831,11 @@
       <c r="AE275" t="s">
         <v>494</v>
       </c>
+      <c r="AF275">
+        <v>2</v>
+      </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>175</v>
       </c>
@@ -28099,8 +28929,11 @@
       <c r="AE276" t="s">
         <v>495</v>
       </c>
+      <c r="AF276">
+        <v>2</v>
+      </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -28194,8 +29027,11 @@
       <c r="AE277" t="s">
         <v>495</v>
       </c>
+      <c r="AF277">
+        <v>2</v>
+      </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>141</v>
       </c>
@@ -28289,8 +29125,11 @@
       <c r="AE278" t="s">
         <v>495</v>
       </c>
+      <c r="AF278">
+        <v>1</v>
+      </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>31</v>
       </c>
@@ -28384,8 +29223,11 @@
       <c r="AE279" t="s">
         <v>494</v>
       </c>
+      <c r="AF279">
+        <v>2</v>
+      </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>80</v>
       </c>
@@ -28479,8 +29321,11 @@
       <c r="AE280" t="s">
         <v>495</v>
       </c>
+      <c r="AF280">
+        <v>2</v>
+      </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>109</v>
       </c>
@@ -28574,8 +29419,11 @@
       <c r="AE281" t="s">
         <v>495</v>
       </c>
+      <c r="AF281">
+        <v>2</v>
+      </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -28669,8 +29517,11 @@
       <c r="AE282" t="s">
         <v>495</v>
       </c>
+      <c r="AF282">
+        <v>2</v>
+      </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>160</v>
       </c>
@@ -28764,8 +29615,11 @@
       <c r="AE283" t="s">
         <v>495</v>
       </c>
+      <c r="AF283">
+        <v>4</v>
+      </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -28859,8 +29713,11 @@
       <c r="AE284" t="s">
         <v>494</v>
       </c>
+      <c r="AF284">
+        <v>2</v>
+      </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>301</v>
       </c>
@@ -28954,8 +29811,11 @@
       <c r="AE285" t="s">
         <v>495</v>
       </c>
+      <c r="AF285">
+        <v>2</v>
+      </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>76</v>
       </c>
@@ -29049,8 +29909,11 @@
       <c r="AE286" t="s">
         <v>495</v>
       </c>
+      <c r="AF286">
+        <v>2</v>
+      </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -29144,8 +30007,11 @@
       <c r="AE287" t="s">
         <v>494</v>
       </c>
+      <c r="AF287">
+        <v>2</v>
+      </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>74</v>
       </c>
@@ -29239,8 +30105,11 @@
       <c r="AE288" t="s">
         <v>494</v>
       </c>
+      <c r="AF288">
+        <v>2</v>
+      </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>13</v>
       </c>
@@ -29334,8 +30203,11 @@
       <c r="AE289" t="s">
         <v>494</v>
       </c>
+      <c r="AF289">
+        <v>2</v>
+      </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>27</v>
       </c>
@@ -29429,8 +30301,11 @@
       <c r="AE290" t="s">
         <v>494</v>
       </c>
+      <c r="AF290">
+        <v>2</v>
+      </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>72</v>
       </c>
@@ -29524,8 +30399,11 @@
       <c r="AE291" t="s">
         <v>495</v>
       </c>
+      <c r="AF291">
+        <v>2</v>
+      </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>211</v>
       </c>
@@ -29619,8 +30497,11 @@
       <c r="AE292" t="s">
         <v>495</v>
       </c>
+      <c r="AF292">
+        <v>1</v>
+      </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>39</v>
       </c>
@@ -29714,8 +30595,11 @@
       <c r="AE293" t="s">
         <v>494</v>
       </c>
+      <c r="AF293">
+        <v>2</v>
+      </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>87</v>
       </c>
@@ -29809,8 +30693,11 @@
       <c r="AE294" t="s">
         <v>494</v>
       </c>
+      <c r="AF294">
+        <v>2</v>
+      </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>53</v>
       </c>
@@ -29904,8 +30791,11 @@
       <c r="AE295" t="s">
         <v>494</v>
       </c>
+      <c r="AF295">
+        <v>2</v>
+      </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>60</v>
       </c>
@@ -29999,8 +30889,11 @@
       <c r="AE296" t="s">
         <v>495</v>
       </c>
+      <c r="AF296">
+        <v>2</v>
+      </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>51</v>
       </c>
@@ -30094,8 +30987,11 @@
       <c r="AE297" t="s">
         <v>495</v>
       </c>
+      <c r="AF297">
+        <v>2</v>
+      </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>83</v>
       </c>
@@ -30189,8 +31085,11 @@
       <c r="AE298" t="s">
         <v>494</v>
       </c>
+      <c r="AF298">
+        <v>2</v>
+      </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>48</v>
       </c>
@@ -30284,8 +31183,11 @@
       <c r="AE299" t="s">
         <v>494</v>
       </c>
+      <c r="AF299">
+        <v>2</v>
+      </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>247</v>
       </c>
@@ -30379,8 +31281,11 @@
       <c r="AE300" t="s">
         <v>494</v>
       </c>
+      <c r="AF300">
+        <v>2</v>
+      </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>19</v>
       </c>
@@ -30474,8 +31379,11 @@
       <c r="AE301" t="s">
         <v>494</v>
       </c>
+      <c r="AF301">
+        <v>2</v>
+      </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -30569,8 +31477,11 @@
       <c r="AE302" t="s">
         <v>495</v>
       </c>
+      <c r="AF302">
+        <v>2</v>
+      </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>25</v>
       </c>
@@ -30664,8 +31575,11 @@
       <c r="AE303" t="s">
         <v>494</v>
       </c>
+      <c r="AF303">
+        <v>2</v>
+      </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>46</v>
       </c>
@@ -30759,8 +31673,11 @@
       <c r="AE304" t="s">
         <v>494</v>
       </c>
+      <c r="AF304">
+        <v>2</v>
+      </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>31</v>
       </c>
@@ -30854,8 +31771,11 @@
       <c r="AE305" t="s">
         <v>494</v>
       </c>
+      <c r="AF305">
+        <v>2</v>
+      </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -30949,8 +31869,11 @@
       <c r="AE306" t="s">
         <v>495</v>
       </c>
+      <c r="AF306">
+        <v>2</v>
+      </c>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>285</v>
       </c>
@@ -31044,8 +31967,11 @@
       <c r="AE307" t="s">
         <v>495</v>
       </c>
+      <c r="AF307">
+        <v>2</v>
+      </c>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>123</v>
       </c>
@@ -31139,8 +32065,11 @@
       <c r="AE308" t="s">
         <v>495</v>
       </c>
+      <c r="AF308">
+        <v>2</v>
+      </c>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>22</v>
       </c>
@@ -31234,8 +32163,11 @@
       <c r="AE309" t="s">
         <v>494</v>
       </c>
+      <c r="AF309">
+        <v>2</v>
+      </c>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>41</v>
       </c>
@@ -31329,8 +32261,11 @@
       <c r="AE310" t="s">
         <v>494</v>
       </c>
+      <c r="AF310">
+        <v>2</v>
+      </c>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>187</v>
       </c>
@@ -31424,8 +32359,11 @@
       <c r="AE311" t="s">
         <v>495</v>
       </c>
+      <c r="AF311">
+        <v>2</v>
+      </c>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>33</v>
       </c>
@@ -31519,8 +32457,11 @@
       <c r="AE312" t="s">
         <v>495</v>
       </c>
+      <c r="AF312">
+        <v>2</v>
+      </c>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>74</v>
       </c>
@@ -31614,8 +32555,11 @@
       <c r="AE313" t="s">
         <v>494</v>
       </c>
+      <c r="AF313">
+        <v>2</v>
+      </c>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>29</v>
       </c>
@@ -31709,8 +32653,11 @@
       <c r="AE314" t="s">
         <v>494</v>
       </c>
+      <c r="AF314">
+        <v>2</v>
+      </c>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>109</v>
       </c>
@@ -31804,8 +32751,11 @@
       <c r="AE315" t="s">
         <v>494</v>
       </c>
+      <c r="AF315">
+        <v>2</v>
+      </c>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>175</v>
       </c>
@@ -31899,8 +32849,11 @@
       <c r="AE316" t="s">
         <v>495</v>
       </c>
+      <c r="AF316">
+        <v>2</v>
+      </c>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>76</v>
       </c>
@@ -31994,8 +32947,11 @@
       <c r="AE317" t="s">
         <v>495</v>
       </c>
+      <c r="AF317">
+        <v>2</v>
+      </c>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>211</v>
       </c>
@@ -32089,8 +33045,11 @@
       <c r="AE318" t="s">
         <v>495</v>
       </c>
+      <c r="AF318">
+        <v>1</v>
+      </c>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>145</v>
       </c>
@@ -32184,8 +33143,11 @@
       <c r="AE319" t="s">
         <v>494</v>
       </c>
+      <c r="AF319">
+        <v>2</v>
+      </c>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>301</v>
       </c>
@@ -32279,8 +33241,11 @@
       <c r="AE320" t="s">
         <v>495</v>
       </c>
+      <c r="AF320">
+        <v>2</v>
+      </c>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>80</v>
       </c>
@@ -32374,8 +33339,11 @@
       <c r="AE321" t="s">
         <v>495</v>
       </c>
+      <c r="AF321">
+        <v>2</v>
+      </c>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -32469,8 +33437,11 @@
       <c r="AE322" t="s">
         <v>495</v>
       </c>
+      <c r="AF322">
+        <v>3</v>
+      </c>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>39</v>
       </c>
@@ -32564,8 +33535,11 @@
       <c r="AE323" t="s">
         <v>494</v>
       </c>
+      <c r="AF323">
+        <v>2</v>
+      </c>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>48</v>
       </c>
@@ -32659,8 +33633,11 @@
       <c r="AE324" t="s">
         <v>494</v>
       </c>
+      <c r="AF324">
+        <v>2</v>
+      </c>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>60</v>
       </c>
@@ -32754,8 +33731,11 @@
       <c r="AE325" t="s">
         <v>495</v>
       </c>
+      <c r="AF325">
+        <v>2</v>
+      </c>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>83</v>
       </c>
@@ -32849,8 +33829,11 @@
       <c r="AE326" t="s">
         <v>495</v>
       </c>
+      <c r="AF326">
+        <v>2</v>
+      </c>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -32944,8 +33927,11 @@
       <c r="AE327" t="s">
         <v>495</v>
       </c>
+      <c r="AF327">
+        <v>2</v>
+      </c>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>25</v>
       </c>
@@ -33039,8 +34025,11 @@
       <c r="AE328" t="s">
         <v>494</v>
       </c>
+      <c r="AF328">
+        <v>2</v>
+      </c>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>31</v>
       </c>
@@ -33134,8 +34123,11 @@
       <c r="AE329" t="s">
         <v>494</v>
       </c>
+      <c r="AF329">
+        <v>2</v>
+      </c>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>6</v>
       </c>
@@ -33229,8 +34221,11 @@
       <c r="AE330" t="s">
         <v>495</v>
       </c>
+      <c r="AF330">
+        <v>2</v>
+      </c>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>285</v>
       </c>
@@ -33324,8 +34319,11 @@
       <c r="AE331" t="s">
         <v>495</v>
       </c>
+      <c r="AF331">
+        <v>2</v>
+      </c>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>83</v>
       </c>
@@ -33419,8 +34417,11 @@
       <c r="AE332" t="s">
         <v>495</v>
       </c>
+      <c r="AF332">
+        <v>3</v>
+      </c>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -33514,8 +34515,11 @@
       <c r="AE333" t="s">
         <v>494</v>
       </c>
+      <c r="AF333">
+        <v>2</v>
+      </c>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>22</v>
       </c>
@@ -33609,8 +34613,11 @@
       <c r="AE334" t="s">
         <v>494</v>
       </c>
+      <c r="AF334">
+        <v>2</v>
+      </c>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -33704,8 +34711,11 @@
       <c r="AE335" t="s">
         <v>494</v>
       </c>
+      <c r="AF335">
+        <v>2</v>
+      </c>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>247</v>
       </c>
@@ -33799,8 +34809,11 @@
       <c r="AE336" t="s">
         <v>494</v>
       </c>
+      <c r="AF336">
+        <v>2</v>
+      </c>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>53</v>
       </c>
@@ -33894,8 +34907,11 @@
       <c r="AE337" t="s">
         <v>494</v>
       </c>
+      <c r="AF337">
+        <v>2</v>
+      </c>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>72</v>
       </c>
@@ -33989,8 +35005,11 @@
       <c r="AE338" t="s">
         <v>494</v>
       </c>
+      <c r="AF338">
+        <v>2</v>
+      </c>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>46</v>
       </c>
@@ -34084,8 +35103,11 @@
       <c r="AE339" t="s">
         <v>494</v>
       </c>
+      <c r="AF339">
+        <v>2</v>
+      </c>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>51</v>
       </c>
@@ -34179,8 +35201,11 @@
       <c r="AE340" t="s">
         <v>495</v>
       </c>
+      <c r="AF340">
+        <v>2</v>
+      </c>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>160</v>
       </c>
@@ -34274,8 +35299,11 @@
       <c r="AE341" t="s">
         <v>495</v>
       </c>
+      <c r="AF341">
+        <v>2</v>
+      </c>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>13</v>
       </c>
@@ -34369,8 +35397,11 @@
       <c r="AE342" t="s">
         <v>494</v>
       </c>
+      <c r="AF342">
+        <v>2</v>
+      </c>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>74</v>
       </c>
@@ -34464,8 +35495,11 @@
       <c r="AE343" t="s">
         <v>494</v>
       </c>
+      <c r="AF343">
+        <v>2</v>
+      </c>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>83</v>
       </c>
@@ -34559,8 +35593,11 @@
       <c r="AE344" t="s">
         <v>495</v>
       </c>
+      <c r="AF344">
+        <v>4</v>
+      </c>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>145</v>
       </c>
@@ -34654,8 +35691,11 @@
       <c r="AE345" t="s">
         <v>494</v>
       </c>
+      <c r="AF345">
+        <v>2</v>
+      </c>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>33</v>
       </c>
@@ -34749,8 +35789,11 @@
       <c r="AE346" t="s">
         <v>494</v>
       </c>
+      <c r="AF346">
+        <v>2</v>
+      </c>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>19</v>
       </c>
@@ -34844,8 +35887,11 @@
       <c r="AE347" t="s">
         <v>495</v>
       </c>
+      <c r="AF347">
+        <v>2</v>
+      </c>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>141</v>
       </c>
@@ -34939,8 +35985,11 @@
       <c r="AE348" t="s">
         <v>495</v>
       </c>
+      <c r="AF348">
+        <v>1</v>
+      </c>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>211</v>
       </c>
@@ -35034,8 +36083,11 @@
       <c r="AE349" t="s">
         <v>495</v>
       </c>
+      <c r="AF349">
+        <v>1</v>
+      </c>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>29</v>
       </c>
@@ -35129,8 +36181,11 @@
       <c r="AE350" t="s">
         <v>494</v>
       </c>
+      <c r="AF350">
+        <v>2</v>
+      </c>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>175</v>
       </c>
@@ -35224,8 +36279,11 @@
       <c r="AE351" t="s">
         <v>495</v>
       </c>
+      <c r="AF351">
+        <v>2</v>
+      </c>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>285</v>
       </c>
@@ -35319,8 +36377,11 @@
       <c r="AE352" t="s">
         <v>495</v>
       </c>
+      <c r="AF352">
+        <v>2</v>
+      </c>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>41</v>
       </c>
@@ -35414,8 +36475,11 @@
       <c r="AE353" t="s">
         <v>494</v>
       </c>
+      <c r="AF353">
+        <v>2</v>
+      </c>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>48</v>
       </c>
@@ -35509,8 +36573,11 @@
       <c r="AE354" t="s">
         <v>494</v>
       </c>
+      <c r="AF354">
+        <v>2</v>
+      </c>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>83</v>
       </c>
@@ -35604,8 +36671,11 @@
       <c r="AE355" t="s">
         <v>494</v>
       </c>
+      <c r="AF355">
+        <v>2</v>
+      </c>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -35699,8 +36769,11 @@
       <c r="AE356" t="s">
         <v>495</v>
       </c>
+      <c r="AF356">
+        <v>3</v>
+      </c>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>83</v>
       </c>
@@ -35794,8 +36867,11 @@
       <c r="AE357" t="s">
         <v>495</v>
       </c>
+      <c r="AF357">
+        <v>3</v>
+      </c>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>247</v>
       </c>
@@ -35889,8 +36965,11 @@
       <c r="AE358" t="s">
         <v>494</v>
       </c>
+      <c r="AF358">
+        <v>2</v>
+      </c>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>301</v>
       </c>
@@ -35984,8 +37063,11 @@
       <c r="AE359" t="s">
         <v>495</v>
       </c>
+      <c r="AF359">
+        <v>2</v>
+      </c>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>60</v>
       </c>
@@ -36079,8 +37161,11 @@
       <c r="AE360" t="s">
         <v>495</v>
       </c>
+      <c r="AF360">
+        <v>2</v>
+      </c>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>211</v>
       </c>
@@ -36174,8 +37259,11 @@
       <c r="AE361" t="s">
         <v>495</v>
       </c>
+      <c r="AF361">
+        <v>4</v>
+      </c>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>27</v>
       </c>
@@ -36269,8 +37357,11 @@
       <c r="AE362" t="s">
         <v>494</v>
       </c>
+      <c r="AF362">
+        <v>2</v>
+      </c>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>187</v>
       </c>
@@ -36364,8 +37455,11 @@
       <c r="AE363" t="s">
         <v>495</v>
       </c>
+      <c r="AF363">
+        <v>2</v>
+      </c>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>76</v>
       </c>
@@ -36459,8 +37553,11 @@
       <c r="AE364" t="s">
         <v>495</v>
       </c>
+      <c r="AF364">
+        <v>2</v>
+      </c>
     </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>46</v>
       </c>
@@ -36554,8 +37651,11 @@
       <c r="AE365" t="s">
         <v>495</v>
       </c>
+      <c r="AF365">
+        <v>2</v>
+      </c>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>175</v>
       </c>
@@ -36649,8 +37749,11 @@
       <c r="AE366" t="s">
         <v>495</v>
       </c>
+      <c r="AF366">
+        <v>3</v>
+      </c>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>33</v>
       </c>
@@ -36744,8 +37847,11 @@
       <c r="AE367" t="s">
         <v>495</v>
       </c>
+      <c r="AF367">
+        <v>2</v>
+      </c>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>129</v>
       </c>
@@ -36839,8 +37945,11 @@
       <c r="AE368" t="s">
         <v>495</v>
       </c>
+      <c r="AF368">
+        <v>3</v>
+      </c>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>83</v>
       </c>
@@ -36934,8 +38043,11 @@
       <c r="AE369" t="s">
         <v>495</v>
       </c>
+      <c r="AF369">
+        <v>3</v>
+      </c>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>145</v>
       </c>
@@ -37029,8 +38141,11 @@
       <c r="AE370" t="s">
         <v>495</v>
       </c>
+      <c r="AF370">
+        <v>2</v>
+      </c>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>285</v>
       </c>
@@ -37124,8 +38239,11 @@
       <c r="AE371" t="s">
         <v>495</v>
       </c>
+      <c r="AF371">
+        <v>2</v>
+      </c>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>160</v>
       </c>
@@ -37219,8 +38337,11 @@
       <c r="AE372" t="s">
         <v>495</v>
       </c>
+      <c r="AF372">
+        <v>3</v>
+      </c>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>211</v>
       </c>
@@ -37314,8 +38435,11 @@
       <c r="AE373" t="s">
         <v>495</v>
       </c>
+      <c r="AF373">
+        <v>1</v>
+      </c>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>247</v>
       </c>
@@ -37409,8 +38533,11 @@
       <c r="AE374" t="s">
         <v>495</v>
       </c>
+      <c r="AF374">
+        <v>2</v>
+      </c>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>83</v>
       </c>
@@ -37504,8 +38631,11 @@
       <c r="AE375" t="s">
         <v>495</v>
       </c>
+      <c r="AF375">
+        <v>2</v>
+      </c>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>301</v>
       </c>
@@ -37599,8 +38729,11 @@
       <c r="AE376" t="s">
         <v>495</v>
       </c>
+      <c r="AF376">
+        <v>2</v>
+      </c>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>60</v>
       </c>
@@ -37694,8 +38827,11 @@
       <c r="AE377" t="s">
         <v>495</v>
       </c>
+      <c r="AF377">
+        <v>2</v>
+      </c>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>175</v>
       </c>
@@ -37789,8 +38925,11 @@
       <c r="AE378" t="s">
         <v>495</v>
       </c>
+      <c r="AF378">
+        <v>2</v>
+      </c>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>428</v>
       </c>
@@ -37884,8 +39023,11 @@
       <c r="AE379" t="s">
         <v>495</v>
       </c>
+      <c r="AF379">
+        <v>3</v>
+      </c>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>141</v>
       </c>
@@ -37979,8 +39121,11 @@
       <c r="AE380" t="s">
         <v>495</v>
       </c>
+      <c r="AF380">
+        <v>1</v>
+      </c>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>53</v>
       </c>
@@ -38074,8 +39219,11 @@
       <c r="AE381" t="s">
         <v>495</v>
       </c>
+      <c r="AF381">
+        <v>2</v>
+      </c>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>175</v>
       </c>
@@ -38169,8 +39317,11 @@
       <c r="AE382" t="s">
         <v>495</v>
       </c>
+      <c r="AF382">
+        <v>3</v>
+      </c>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>19</v>
       </c>
@@ -38264,8 +39415,11 @@
       <c r="AE383" t="s">
         <v>495</v>
       </c>
+      <c r="AF383">
+        <v>2</v>
+      </c>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>187</v>
       </c>
@@ -38359,8 +39513,11 @@
       <c r="AE384" t="s">
         <v>495</v>
       </c>
+      <c r="AF384">
+        <v>2</v>
+      </c>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>433</v>
       </c>
@@ -38454,8 +39611,11 @@
       <c r="AE385" t="s">
         <v>495</v>
       </c>
+      <c r="AF385">
+        <v>3</v>
+      </c>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>175</v>
       </c>
@@ -38549,8 +39709,11 @@
       <c r="AE386" t="s">
         <v>495</v>
       </c>
+      <c r="AF386">
+        <v>4</v>
+      </c>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>301</v>
       </c>
@@ -38644,8 +39807,11 @@
       <c r="AE387" t="s">
         <v>495</v>
       </c>
+      <c r="AF387">
+        <v>2</v>
+      </c>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>211</v>
       </c>
@@ -38739,8 +39905,11 @@
       <c r="AE388" t="s">
         <v>495</v>
       </c>
+      <c r="AF388">
+        <v>1</v>
+      </c>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>175</v>
       </c>
@@ -38834,8 +40003,11 @@
       <c r="AE389" t="s">
         <v>495</v>
       </c>
+      <c r="AF389">
+        <v>3</v>
+      </c>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>83</v>
       </c>
@@ -38929,8 +40101,11 @@
       <c r="AE390" t="s">
         <v>495</v>
       </c>
+      <c r="AF390">
+        <v>2</v>
+      </c>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>428</v>
       </c>
@@ -39024,8 +40199,11 @@
       <c r="AE391" t="s">
         <v>495</v>
       </c>
+      <c r="AF391">
+        <v>4</v>
+      </c>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>41</v>
       </c>
@@ -39119,8 +40297,11 @@
       <c r="AE392" t="s">
         <v>495</v>
       </c>
+      <c r="AF392">
+        <v>2</v>
+      </c>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>247</v>
       </c>
@@ -39214,8 +40395,11 @@
       <c r="AE393" t="s">
         <v>495</v>
       </c>
+      <c r="AF393">
+        <v>2</v>
+      </c>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>428</v>
       </c>
@@ -39309,8 +40493,11 @@
       <c r="AE394" t="s">
         <v>495</v>
       </c>
+      <c r="AF394">
+        <v>2</v>
+      </c>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>19</v>
       </c>
@@ -39404,8 +40591,11 @@
       <c r="AE395" t="s">
         <v>495</v>
       </c>
+      <c r="AF395">
+        <v>2</v>
+      </c>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>301</v>
       </c>
@@ -39499,8 +40689,11 @@
       <c r="AE396" t="s">
         <v>495</v>
       </c>
+      <c r="AF396">
+        <v>2</v>
+      </c>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>33</v>
       </c>
@@ -39594,8 +40787,11 @@
       <c r="AE397" t="s">
         <v>495</v>
       </c>
+      <c r="AF397">
+        <v>3</v>
+      </c>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>428</v>
       </c>
@@ -39689,8 +40885,11 @@
       <c r="AE398" t="s">
         <v>495</v>
       </c>
+      <c r="AF398">
+        <v>3</v>
+      </c>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>83</v>
       </c>
@@ -39784,8 +40983,11 @@
       <c r="AE399" t="s">
         <v>495</v>
       </c>
+      <c r="AF399">
+        <v>2</v>
+      </c>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>301</v>
       </c>
@@ -39879,8 +41081,11 @@
       <c r="AE400" t="s">
         <v>495</v>
       </c>
+      <c r="AF400">
+        <v>3</v>
+      </c>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>428</v>
       </c>
@@ -39974,8 +41179,11 @@
       <c r="AE401" t="s">
         <v>495</v>
       </c>
+      <c r="AF401">
+        <v>3</v>
+      </c>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>301</v>
       </c>
@@ -40069,8 +41277,11 @@
       <c r="AE402" t="s">
         <v>495</v>
       </c>
+      <c r="AF402">
+        <v>2</v>
+      </c>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>145</v>
       </c>
@@ -40164,8 +41375,11 @@
       <c r="AE403" t="s">
         <v>495</v>
       </c>
+      <c r="AF403">
+        <v>2</v>
+      </c>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>187</v>
       </c>
@@ -40259,8 +41473,11 @@
       <c r="AE404" t="s">
         <v>495</v>
       </c>
+      <c r="AF404">
+        <v>2</v>
+      </c>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>428</v>
       </c>
@@ -40354,8 +41571,11 @@
       <c r="AE405" t="s">
         <v>495</v>
       </c>
+      <c r="AF405">
+        <v>3</v>
+      </c>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>187</v>
       </c>
@@ -40449,8 +41669,11 @@
       <c r="AE406" t="s">
         <v>495</v>
       </c>
+      <c r="AF406">
+        <v>3</v>
+      </c>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>428</v>
       </c>
@@ -40544,8 +41767,11 @@
       <c r="AE407" t="s">
         <v>495</v>
       </c>
+      <c r="AF407">
+        <v>4</v>
+      </c>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>301</v>
       </c>
@@ -40639,8 +41865,11 @@
       <c r="AE408" t="s">
         <v>495</v>
       </c>
+      <c r="AF408">
+        <v>2</v>
+      </c>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>301</v>
       </c>
@@ -40734,8 +41963,11 @@
       <c r="AE409" t="s">
         <v>495</v>
       </c>
+      <c r="AF409">
+        <v>3</v>
+      </c>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>83</v>
       </c>
@@ -40829,8 +42061,11 @@
       <c r="AE410" t="s">
         <v>495</v>
       </c>
+      <c r="AF410">
+        <v>3</v>
+      </c>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>428</v>
       </c>
@@ -40924,8 +42159,11 @@
       <c r="AE411" t="s">
         <v>495</v>
       </c>
+      <c r="AF411">
+        <v>4</v>
+      </c>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>461</v>
       </c>
@@ -41019,9 +42257,12 @@
       <c r="AE412" t="s">
         <v>495</v>
       </c>
+      <c r="AF412">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE412" xr:uid="{A35BEE3E-753E-4276-86EA-DDA007467E6B}"/>
+  <autoFilter ref="A1:AF412" xr:uid="{E3A7A48A-1328-4DFC-BE67-23377C1AED57}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>